--- a/Themen/01/potato.export3.xlsx
+++ b/Themen/01/potato.export3.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Kartoffeldaten" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Alter_Gewicht" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary statistics" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">variety</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">Costanera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_sd</t>
   </si>
 </sst>
 </file>
@@ -9976,7 +9982,190 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.1525</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.5524804477866</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87.5475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.5763480937966</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.0578947368421</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.17040247045155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>141.0425</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.2311964624904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>95.35625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.7618306940294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96.8025</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.7649686246741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.25125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.33863966031071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.205</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.4108059358218</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88.5475</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.8002715752433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>69.0825</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36.4018799704715</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.285</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.0517505068832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>94.555</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.2910672892079</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
